--- a/InputData/elec/DPbES/Dispatch Priority by Elec Source.xlsx
+++ b/InputData/elec/DPbES/Dispatch Priority by Elec Source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\MS\elec\DPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2CBDFF0-499C-491A-9F6B-1B93AA8B4BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B55E2810-2832-48CB-A654-4B17208A2796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="645" windowWidth="16830" windowHeight="16320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1785" yWindow="1110" windowWidth="14745" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -849,7 +849,7 @@
         <v>78</v>
       </c>
       <c r="C1" s="6">
-        <v>45350</v>
+        <v>45364</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>32</v>
@@ -2334,8 +2334,8 @@
   </sheetPr>
   <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:AE16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4088,94 +4088,94 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">

--- a/InputData/elec/DPbES/Dispatch Priority by Elec Source.xlsx
+++ b/InputData/elec/DPbES/Dispatch Priority by Elec Source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\MS\elec\DPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B55E2810-2832-48CB-A654-4B17208A2796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A15B8F6C-34CC-43C2-8B7C-25F606CDB7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="1110" windowWidth="14745" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="23895" windowHeight="16830" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -849,7 +849,7 @@
         <v>78</v>
       </c>
       <c r="C1" s="6">
-        <v>45364</v>
+        <v>45407</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>32</v>
@@ -2335,12 +2335,12 @@
   <dimension ref="A1:AI25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4183,94 +4183,94 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
@@ -4278,94 +4278,94 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
@@ -4373,94 +4373,94 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
@@ -4468,94 +4468,94 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">

--- a/InputData/elec/DPbES/Dispatch Priority by Elec Source.xlsx
+++ b/InputData/elec/DPbES/Dispatch Priority by Elec Source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\MS\elec\DPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A15B8F6C-34CC-43C2-8B7C-25F606CDB7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6B4CBC1-CE6B-4854-90FE-0039FE9A96E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="23895" windowHeight="16830" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2135" yWindow="2135" windowWidth="14400" windowHeight="7455" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="133">
   <si>
     <t>nuclear</t>
   </si>
@@ -836,12 +836,12 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G50"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -849,7 +849,7 @@
         <v>78</v>
       </c>
       <c r="C1" s="6">
-        <v>45407</v>
+        <v>45477</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>32</v>
@@ -858,7 +858,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B2" t="str">
         <f>LOOKUP(B1,F1:G50,G1:G50)</f>
         <v>MS</v>
@@ -870,7 +870,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -881,7 +881,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -896,7 +896,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A5" s="3"/>
       <c r="F5" s="7" t="s">
         <v>40</v>
@@ -905,7 +905,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -916,7 +916,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -927,7 +927,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -938,7 +938,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -949,7 +949,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
       <c r="F10" s="7" t="s">
         <v>50</v>
       </c>
@@ -957,7 +957,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A11" s="1"/>
       <c r="F11" s="7" t="s">
         <v>52</v>
@@ -966,7 +966,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
       <c r="F12" s="7" t="s">
         <v>54</v>
       </c>
@@ -974,7 +974,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
       <c r="F13" s="7" t="s">
         <v>56</v>
       </c>
@@ -982,7 +982,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
       <c r="F14" s="7" t="s">
         <v>58</v>
       </c>
@@ -990,7 +990,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
       <c r="F15" s="7" t="s">
         <v>60</v>
       </c>
@@ -998,7 +998,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
       <c r="F16" s="7" t="s">
         <v>62</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F17" s="7" t="s">
         <v>64</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F18" s="7" t="s">
         <v>66</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F19" s="7" t="s">
         <v>68</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F20" s="7" t="s">
         <v>70</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F21" s="7" t="s">
         <v>72</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F22" s="7" t="s">
         <v>74</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F23" s="7" t="s">
         <v>76</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F24" s="7" t="s">
         <v>78</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F25" s="7" t="s">
         <v>80</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F26" s="7" t="s">
         <v>82</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F27" s="7" t="s">
         <v>84</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F28" s="7" t="s">
         <v>86</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F29" s="7" t="s">
         <v>88</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F30" s="7" t="s">
         <v>90</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F31" s="7" t="s">
         <v>92</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F32" s="7" t="s">
         <v>94</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F33" s="7" t="s">
         <v>96</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F34" s="7" t="s">
         <v>98</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F35" s="7" t="s">
         <v>100</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F36" s="7" t="s">
         <v>102</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F37" s="7" t="s">
         <v>104</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F38" s="7" t="s">
         <v>106</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F39" s="7" t="s">
         <v>108</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F40" s="7" t="s">
         <v>110</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F41" s="7" t="s">
         <v>112</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F42" s="7" t="s">
         <v>114</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F43" s="7" t="s">
         <v>116</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F44" s="7" t="s">
         <v>118</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F45" s="7" t="s">
         <v>120</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F46" s="7" t="s">
         <v>122</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F47" s="7" t="s">
         <v>124</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F48" s="7" t="s">
         <v>126</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F49" s="7" t="s">
         <v>128</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:7" x14ac:dyDescent="0.75">
       <c r="F50" s="7" t="s">
         <v>130</v>
       </c>
@@ -1286,24 +1286,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BDCE19-9BA4-432D-AEA7-69131162EFF2}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="6" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.7265625" customWidth="1"/>
+    <col min="3" max="7" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
       <c r="C2" t="s">
         <v>9</v>
       </c>
@@ -1314,10 +1314,13 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
@@ -1334,10 +1337,13 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A4" s="7" t="s">
         <v>34</v>
       </c>
@@ -1354,10 +1360,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
@@ -1374,10 +1383,13 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -1396,8 +1408,11 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
@@ -1414,10 +1429,13 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -1436,8 +1454,11 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A9" s="7" t="s">
         <v>44</v>
       </c>
@@ -1454,10 +1475,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A10" s="7" t="s">
         <v>46</v>
       </c>
@@ -1474,10 +1498,13 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A11" s="7" t="s">
         <v>48</v>
       </c>
@@ -1494,10 +1521,13 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A12" s="7" t="s">
         <v>50</v>
       </c>
@@ -1516,8 +1546,11 @@
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A13" s="7" t="s">
         <v>52</v>
       </c>
@@ -1534,10 +1567,13 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A14" s="7" t="s">
         <v>54</v>
       </c>
@@ -1554,10 +1590,13 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A15" s="7" t="s">
         <v>56</v>
       </c>
@@ -1576,8 +1615,11 @@
       <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A16" s="7" t="s">
         <v>58</v>
       </c>
@@ -1594,10 +1636,13 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A17" s="7" t="s">
         <v>60</v>
       </c>
@@ -1614,10 +1659,13 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A18" s="7" t="s">
         <v>62</v>
       </c>
@@ -1634,10 +1682,13 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A19" s="7" t="s">
         <v>64</v>
       </c>
@@ -1654,10 +1705,13 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A20" s="7" t="s">
         <v>66</v>
       </c>
@@ -1674,10 +1728,13 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A21" s="7" t="s">
         <v>68</v>
       </c>
@@ -1694,10 +1751,13 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A22" s="7" t="s">
         <v>70</v>
       </c>
@@ -1714,10 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A23" s="7" t="s">
         <v>72</v>
       </c>
@@ -1734,10 +1797,13 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A24" s="7" t="s">
         <v>74</v>
       </c>
@@ -1754,10 +1820,13 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A25" s="7" t="s">
         <v>76</v>
       </c>
@@ -1774,10 +1843,13 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A26" s="7" t="s">
         <v>78</v>
       </c>
@@ -1794,10 +1866,13 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A27" s="7" t="s">
         <v>80</v>
       </c>
@@ -1814,10 +1889,13 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A28" s="7" t="s">
         <v>82</v>
       </c>
@@ -1834,10 +1912,13 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A29" s="7" t="s">
         <v>84</v>
       </c>
@@ -1856,8 +1937,11 @@
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A30" s="7" t="s">
         <v>86</v>
       </c>
@@ -1874,10 +1958,13 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A31" s="7" t="s">
         <v>88</v>
       </c>
@@ -1894,10 +1981,13 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A32" s="7" t="s">
         <v>90</v>
       </c>
@@ -1914,10 +2004,13 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A33" s="7" t="s">
         <v>92</v>
       </c>
@@ -1934,10 +2027,13 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A34" s="7" t="s">
         <v>94</v>
       </c>
@@ -1954,10 +2050,13 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A35" s="7" t="s">
         <v>96</v>
       </c>
@@ -1976,8 +2075,11 @@
       <c r="F35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A36" s="7" t="s">
         <v>98</v>
       </c>
@@ -1994,10 +2096,13 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A37" s="7" t="s">
         <v>100</v>
       </c>
@@ -2014,10 +2119,13 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A38" s="7" t="s">
         <v>102</v>
       </c>
@@ -2036,8 +2144,11 @@
       <c r="F38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A39" s="7" t="s">
         <v>104</v>
       </c>
@@ -2054,10 +2165,13 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A40" s="7" t="s">
         <v>106</v>
       </c>
@@ -2074,10 +2188,13 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A41" s="7" t="s">
         <v>108</v>
       </c>
@@ -2094,10 +2211,13 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A42" s="7" t="s">
         <v>110</v>
       </c>
@@ -2114,10 +2234,13 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A43" s="7" t="s">
         <v>112</v>
       </c>
@@ -2134,10 +2257,13 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A44" s="7" t="s">
         <v>114</v>
       </c>
@@ -2154,10 +2280,13 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A45" s="7" t="s">
         <v>116</v>
       </c>
@@ -2174,10 +2303,13 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A46" s="7" t="s">
         <v>118</v>
       </c>
@@ -2196,8 +2328,11 @@
       <c r="F46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A47" s="7" t="s">
         <v>120</v>
       </c>
@@ -2216,8 +2351,11 @@
       <c r="F47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A48" s="7" t="s">
         <v>122</v>
       </c>
@@ -2234,10 +2372,13 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A49" s="7" t="s">
         <v>124</v>
       </c>
@@ -2254,10 +2395,13 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A50" s="7" t="s">
         <v>126</v>
       </c>
@@ -2274,10 +2418,13 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A51" s="7" t="s">
         <v>128</v>
       </c>
@@ -2294,10 +2441,13 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A52" s="7" t="s">
         <v>130</v>
       </c>
@@ -2314,11 +2464,14 @@
         <v>0</v>
       </c>
       <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:E1 C3:F52 C53:E1048576">
+  <conditionalFormatting sqref="C1:F1 C3:G52 C53:F1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
@@ -2335,16 +2488,16 @@
   <dimension ref="A1:AI25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.86328125" customWidth="1"/>
+    <col min="2" max="2" width="10.40625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -2443,382 +2596,382 @@
       <c r="AH1" s="2"/>
       <c r="AI1" s="2"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="C2" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="D2" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="E2" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="F2" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="G2" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="H2" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="I2" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="J2" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="K2" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="L2" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="M2" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="N2" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="O2" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="P2" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="Q2" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="R2" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="S2" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="T2" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="U2" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="V2" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="W2" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="X2" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="Y2" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="Z2" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="AA2" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="AB2" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="AC2" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="AD2" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="AE2" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$F$2,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="C3" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="D3" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="E3" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="F3" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="G3" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="H3" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="I3" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="J3" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="K3" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="L3" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="M3" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="N3" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="O3" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="P3" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="Q3" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="R3" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="S3" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="T3" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="U3" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="V3" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="W3" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="X3" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="Y3" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="Z3" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="AA3" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="AB3" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="AC3" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="AD3" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="AE3" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$F$2,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="C4" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="D4" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="E4" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="F4" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="G4" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="H4" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="I4" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="J4" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="K4" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="L4" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="M4" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="N4" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="O4" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="P4" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="Q4" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="R4" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="S4" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="T4" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="U4" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="V4" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="W4" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="X4" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="Y4" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="Z4" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="AA4" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="AB4" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="AC4" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="AD4" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="AE4" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$F$2,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2913,102 +3066,132 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
-      <c r="Z6">
-        <v>1</v>
-      </c>
-      <c r="AA6">
-        <v>1</v>
-      </c>
-      <c r="AB6">
-        <v>1</v>
-      </c>
-      <c r="AC6">
-        <v>1</v>
-      </c>
-      <c r="AD6">
-        <v>1</v>
-      </c>
-      <c r="AE6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B6" s="8">
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A6,Sheet1!$C$2:$G$2,0))</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <f>B6</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" ref="D6:AE6" si="0">C6</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="W6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="X6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AA6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AB6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AC6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AD6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AE6" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3103,7 +3286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -3198,7 +3381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -3293,7 +3476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -3388,7 +3571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -3483,7 +3666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -3578,132 +3761,132 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="C13" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="D13" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="E13" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="F13" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="G13" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="H13" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="I13" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="J13" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="K13" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="L13" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="M13" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="N13" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="O13" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="P13" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="Q13" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="R13" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="S13" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="T13" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="U13" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="V13" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="W13" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="X13" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="Y13" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="Z13" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="AA13" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="AB13" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="AC13" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="AD13" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$F$2,0))</f>
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
         <v>0</v>
       </c>
       <c r="AE13" s="8">
-        <f>INDEX(Sheet1!$C$3:$F$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$F$2,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -3798,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -3893,7 +4076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -3988,7 +4171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4083,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -4178,7 +4361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -4273,7 +4456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -4368,7 +4551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -4463,7 +4646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -4558,7 +4741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -4653,7 +4836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A24" s="5" t="s">
         <v>24</v>
       </c>
@@ -4748,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.75">
       <c r="A25" s="5" t="s">
         <v>25</v>
       </c>

--- a/InputData/elec/DPbES/Dispatch Priority by Elec Source.xlsx
+++ b/InputData/elec/DPbES/Dispatch Priority by Elec Source.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\MS\elec\DPbES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6B4CBC1-CE6B-4854-90FE-0039FE9A96E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E0E50F1-2108-4A15-A696-077C99F265E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2135" yWindow="2135" windowWidth="14400" windowHeight="7455" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1365" yWindow="1890" windowWidth="14700" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -474,18 +474,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -500,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -517,7 +511,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,9 +832,9 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -849,7 +842,7 @@
         <v>78</v>
       </c>
       <c r="C1" s="6">
-        <v>45477</v>
+        <v>45484</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>32</v>
@@ -858,7 +851,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" t="str">
         <f>LOOKUP(B1,F1:G50,G1:G50)</f>
         <v>MS</v>
@@ -870,7 +863,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -881,7 +874,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -896,7 +889,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="F5" s="7" t="s">
         <v>40</v>
@@ -905,7 +898,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -916,7 +909,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -927,7 +920,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -938,7 +931,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -949,7 +942,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F10" s="7" t="s">
         <v>50</v>
       </c>
@@ -957,7 +950,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="F11" s="7" t="s">
         <v>52</v>
@@ -966,7 +959,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F12" s="7" t="s">
         <v>54</v>
       </c>
@@ -974,7 +967,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F13" s="7" t="s">
         <v>56</v>
       </c>
@@ -982,7 +975,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F14" s="7" t="s">
         <v>58</v>
       </c>
@@ -990,7 +983,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F15" s="7" t="s">
         <v>60</v>
       </c>
@@ -998,7 +991,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F16" s="7" t="s">
         <v>62</v>
       </c>
@@ -1006,7 +999,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="7" t="s">
         <v>64</v>
       </c>
@@ -1014,7 +1007,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F18" s="7" t="s">
         <v>66</v>
       </c>
@@ -1022,7 +1015,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19" s="7" t="s">
         <v>68</v>
       </c>
@@ -1030,7 +1023,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F20" s="7" t="s">
         <v>70</v>
       </c>
@@ -1038,7 +1031,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F21" s="7" t="s">
         <v>72</v>
       </c>
@@ -1046,7 +1039,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F22" s="7" t="s">
         <v>74</v>
       </c>
@@ -1054,7 +1047,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F23" s="7" t="s">
         <v>76</v>
       </c>
@@ -1062,7 +1055,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F24" s="7" t="s">
         <v>78</v>
       </c>
@@ -1070,7 +1063,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F25" s="7" t="s">
         <v>80</v>
       </c>
@@ -1078,7 +1071,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F26" s="7" t="s">
         <v>82</v>
       </c>
@@ -1086,7 +1079,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F27" s="7" t="s">
         <v>84</v>
       </c>
@@ -1094,7 +1087,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F28" s="7" t="s">
         <v>86</v>
       </c>
@@ -1102,7 +1095,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F29" s="7" t="s">
         <v>88</v>
       </c>
@@ -1110,7 +1103,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F30" s="7" t="s">
         <v>90</v>
       </c>
@@ -1118,7 +1111,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F31" s="7" t="s">
         <v>92</v>
       </c>
@@ -1126,7 +1119,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F32" s="7" t="s">
         <v>94</v>
       </c>
@@ -1134,7 +1127,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F33" s="7" t="s">
         <v>96</v>
       </c>
@@ -1142,7 +1135,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F34" s="7" t="s">
         <v>98</v>
       </c>
@@ -1150,7 +1143,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F35" s="7" t="s">
         <v>100</v>
       </c>
@@ -1158,7 +1151,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F36" s="7" t="s">
         <v>102</v>
       </c>
@@ -1166,7 +1159,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F37" s="7" t="s">
         <v>104</v>
       </c>
@@ -1174,7 +1167,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F38" s="7" t="s">
         <v>106</v>
       </c>
@@ -1182,7 +1175,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F39" s="7" t="s">
         <v>108</v>
       </c>
@@ -1190,7 +1183,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F40" s="7" t="s">
         <v>110</v>
       </c>
@@ -1198,7 +1191,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F41" s="7" t="s">
         <v>112</v>
       </c>
@@ -1206,7 +1199,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="42" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F42" s="7" t="s">
         <v>114</v>
       </c>
@@ -1214,7 +1207,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="43" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F43" s="7" t="s">
         <v>116</v>
       </c>
@@ -1222,7 +1215,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="44" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F44" s="7" t="s">
         <v>118</v>
       </c>
@@ -1230,7 +1223,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="45" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F45" s="7" t="s">
         <v>120</v>
       </c>
@@ -1238,7 +1231,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="46" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F46" s="7" t="s">
         <v>122</v>
       </c>
@@ -1246,7 +1239,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="47" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F47" s="7" t="s">
         <v>124</v>
       </c>
@@ -1254,7 +1247,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="48" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F48" s="7" t="s">
         <v>126</v>
       </c>
@@ -1262,7 +1255,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F49" s="7" t="s">
         <v>128</v>
       </c>
@@ -1270,7 +1263,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.75">
+    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F50" s="7" t="s">
         <v>130</v>
       </c>
@@ -1292,18 +1285,18 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.7265625" customWidth="1"/>
-    <col min="3" max="7" width="8.26953125" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="7" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>9</v>
       </c>
@@ -1320,7 +1313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
@@ -1343,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>34</v>
       </c>
@@ -1366,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
@@ -1389,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
@@ -1412,7 +1405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
@@ -1435,7 +1428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
@@ -1458,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>44</v>
       </c>
@@ -1481,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>46</v>
       </c>
@@ -1504,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>48</v>
       </c>
@@ -1527,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>50</v>
       </c>
@@ -1550,7 +1543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>52</v>
       </c>
@@ -1573,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>54</v>
       </c>
@@ -1596,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>56</v>
       </c>
@@ -1619,7 +1612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>58</v>
       </c>
@@ -1642,7 +1635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>60</v>
       </c>
@@ -1665,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>62</v>
       </c>
@@ -1688,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>64</v>
       </c>
@@ -1711,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>66</v>
       </c>
@@ -1734,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>68</v>
       </c>
@@ -1757,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>70</v>
       </c>
@@ -1780,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>72</v>
       </c>
@@ -1803,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>74</v>
       </c>
@@ -1826,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>76</v>
       </c>
@@ -1849,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>78</v>
       </c>
@@ -1872,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>80</v>
       </c>
@@ -1895,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>82</v>
       </c>
@@ -1918,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>84</v>
       </c>
@@ -1941,7 +1934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>86</v>
       </c>
@@ -1964,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>88</v>
       </c>
@@ -1987,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>90</v>
       </c>
@@ -2010,7 +2003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>92</v>
       </c>
@@ -2033,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>94</v>
       </c>
@@ -2056,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>96</v>
       </c>
@@ -2079,7 +2072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>98</v>
       </c>
@@ -2102,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>100</v>
       </c>
@@ -2125,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>102</v>
       </c>
@@ -2148,7 +2141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>104</v>
       </c>
@@ -2171,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>106</v>
       </c>
@@ -2194,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>108</v>
       </c>
@@ -2217,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>110</v>
       </c>
@@ -2240,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>112</v>
       </c>
@@ -2263,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>114</v>
       </c>
@@ -2286,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>116</v>
       </c>
@@ -2309,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>118</v>
       </c>
@@ -2332,7 +2325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>120</v>
       </c>
@@ -2355,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>122</v>
       </c>
@@ -2378,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>124</v>
       </c>
@@ -2401,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>126</v>
       </c>
@@ -2424,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>128</v>
       </c>
@@ -2447,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>130</v>
       </c>
@@ -2487,17 +2480,17 @@
   </sheetPr>
   <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:AE16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.86328125" customWidth="1"/>
-    <col min="2" max="2" width="10.40625" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -2596,382 +2589,292 @@
       <c r="AH1" s="2"/>
       <c r="AI1" s="2"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="R2" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="V2" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="W2" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X2" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y2" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Z2" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AA2" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AB2" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AC2" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AD2" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AE2" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A2,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y3" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AB3" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AC3" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AD3" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AE3" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A3,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="U4" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="V4" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="W4" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X4" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AB4" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AD4" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A4,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -3066,607 +2969,577 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A6,Sheet1!$C$2:$G$2,0))</f>
-        <v>1</v>
-      </c>
-      <c r="C6" s="8">
-        <f>B6</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="8">
-        <f t="shared" ref="D6:AE6" si="0">C6</f>
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F6" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G6" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H6" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I6" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J6" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K6" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L6" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M6" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N6" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O6" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P6" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q6" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R6" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S6" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T6" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U6" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V6" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="W6" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="X6" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y6" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Z6" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AA6" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AB6" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AC6" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AD6" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AE6" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -3761,132 +3634,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="T13" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="U13" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="V13" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="W13" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="X13" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="8">
-        <f>INDEX(Sheet1!$C$3:$G$52,MATCH(About!$B$2,Sheet1!$B$3:$B$52,0),MATCH(DPbES!$A13,Sheet1!$C$2:$G$2,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.75">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -3981,102 +3824,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -4171,7 +4014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -4266,482 +4109,482 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -4836,7 +4679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>24</v>
       </c>
@@ -4931,7 +4774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
